--- a/data/trans_orig/P11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P11-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>19455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11636</v>
+        <v>12308</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29017</v>
+        <v>29376</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01885694531029189</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01127861825468562</v>
+        <v>0.01192934091127068</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.028124924984682</v>
+        <v>0.02847255030784031</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -765,19 +765,19 @@
         <v>34137</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23870</v>
+        <v>24631</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48597</v>
+        <v>47771</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02595731757766812</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01815071639880165</v>
+        <v>0.01872932718721936</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03695299299204859</v>
+        <v>0.03632494564782993</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -786,19 +786,19 @@
         <v>53592</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39822</v>
+        <v>40579</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69143</v>
+        <v>69934</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02283583065284223</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0169682449131002</v>
+        <v>0.01729106015323726</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0294622922711699</v>
+        <v>0.02979931545919622</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>51720</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39224</v>
+        <v>39277</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67148</v>
+        <v>67337</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05013007896466914</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0380183028662292</v>
+        <v>0.03806940603581251</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06508318682755131</v>
+        <v>0.06526632548320895</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -836,19 +836,19 @@
         <v>84894</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70261</v>
+        <v>67586</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>106260</v>
+        <v>102223</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06455258883695425</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05342561981081136</v>
+        <v>0.05139173603919269</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08079883688745344</v>
+        <v>0.07772966921585513</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>135</v>
@@ -857,19 +857,19 @@
         <v>136614</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>115539</v>
+        <v>115445</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>160873</v>
+        <v>163354</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05821212184533464</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04923196287294904</v>
+        <v>0.04919185254280378</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06854893269638225</v>
+        <v>0.06960628721344025</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>92552</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>75484</v>
+        <v>77612</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>110406</v>
+        <v>114825</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0897061708516885</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07316327048113382</v>
+        <v>0.07522577561912991</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1070116358238751</v>
+        <v>0.1112940871285225</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>169</v>
@@ -907,19 +907,19 @@
         <v>175312</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>150049</v>
+        <v>150711</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>200169</v>
+        <v>199623</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1333052875256401</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1140956706314751</v>
+        <v>0.1145989055762197</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1522069190224029</v>
+        <v>0.1517918742276326</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>264</v>
@@ -928,19 +928,19 @@
         <v>267863</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>238205</v>
+        <v>239355</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>301329</v>
+        <v>299583</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.114138113255496</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1015003310188109</v>
+        <v>0.1019904178209416</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1283981749133013</v>
+        <v>0.1276542585859722</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>181004</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>159784</v>
+        <v>158855</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>204375</v>
+        <v>207523</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1754383394805966</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1548711651036604</v>
+        <v>0.1539705224188329</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1980909574268137</v>
+        <v>0.2011417554540903</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>318</v>
@@ -978,19 +978,19 @@
         <v>321077</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>292321</v>
+        <v>290624</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>353228</v>
+        <v>352500</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2441442581452309</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.222278342246158</v>
+        <v>0.2209879365913251</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2685913569363653</v>
+        <v>0.2680379656064845</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>505</v>
@@ -999,19 +999,19 @@
         <v>502081</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>461444</v>
+        <v>462413</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>539400</v>
+        <v>541247</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2139395563783675</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1966239863612932</v>
+        <v>0.1970368923133382</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2298414557978698</v>
+        <v>0.2306285542381648</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>686992</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>656918</v>
+        <v>658755</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>713631</v>
+        <v>714870</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6658684653927539</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.636719464874747</v>
+        <v>0.6384995396325089</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6916887335603834</v>
+        <v>0.6928896592504326</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>689</v>
@@ -1049,19 +1049,19 @@
         <v>699693</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>661940</v>
+        <v>663137</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>736039</v>
+        <v>735398</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5320405479145066</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5033333649327273</v>
+        <v>0.5042437386212517</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5596777468493775</v>
+        <v>0.559190131102955</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1373</v>
@@ -1070,19 +1070,19 @@
         <v>1386685</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1340727</v>
+        <v>1339017</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1432670</v>
+        <v>1433357</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5908743778679596</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5712915771104251</v>
+        <v>0.5705627518739804</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.610469032979902</v>
+        <v>0.6107618919811145</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>5460</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1818</v>
+        <v>1886</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11275</v>
+        <v>12026</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003224369980261552</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001073426951849796</v>
+        <v>0.001113530123293197</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006658075526910679</v>
+        <v>0.007101904382104176</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1195,19 +1195,19 @@
         <v>15815</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9047</v>
+        <v>9019</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25723</v>
+        <v>26377</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009961277440322122</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005698408650742354</v>
+        <v>0.005680813239994647</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01620169689521735</v>
+        <v>0.01661379941368521</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1216,19 +1216,19 @@
         <v>21275</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13197</v>
+        <v>13012</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33324</v>
+        <v>31604</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00648426859409292</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004022197758453605</v>
+        <v>0.003965838085906083</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01015647667415322</v>
+        <v>0.009632312073659449</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>23767</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15150</v>
+        <v>15746</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35047</v>
+        <v>34844</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01403514350399471</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008946633357278549</v>
+        <v>0.009298364933794523</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02069609161785286</v>
+        <v>0.02057609617669831</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -1266,19 +1266,19 @@
         <v>29395</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19267</v>
+        <v>20893</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42290</v>
+        <v>43234</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01851434099049005</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01213559263468831</v>
+        <v>0.0131592658339162</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02663626023245895</v>
+        <v>0.02723087819676715</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>53</v>
@@ -1287,19 +1287,19 @@
         <v>53162</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>39089</v>
+        <v>39733</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>69342</v>
+        <v>68669</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01620256672657402</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0119133722991587</v>
+        <v>0.01210979647881406</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02113377298249672</v>
+        <v>0.02092883629857144</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>39962</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28206</v>
+        <v>28776</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53612</v>
+        <v>55555</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02359844583611212</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01665628951805646</v>
+        <v>0.01699269308467769</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03165925474972358</v>
+        <v>0.03280670040883744</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>56</v>
@@ -1337,19 +1337,19 @@
         <v>59667</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>44855</v>
+        <v>45912</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>75253</v>
+        <v>75631</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0375811806116919</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02825188591452368</v>
+        <v>0.02891809080390547</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04739838514602449</v>
+        <v>0.04763669307721933</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>95</v>
@@ -1358,19 +1358,19 @@
         <v>99629</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>80627</v>
+        <v>81859</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>121573</v>
+        <v>122220</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.030364502514598</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02457339221368361</v>
+        <v>0.0249488676239719</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03705258469366708</v>
+        <v>0.03724993916448101</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>125428</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>105898</v>
+        <v>104102</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>145847</v>
+        <v>146515</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07406818073514203</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06253509047124753</v>
+        <v>0.06147442746126831</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08612596553448609</v>
+        <v>0.0865205048254637</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>181</v>
@@ -1408,19 +1408,19 @@
         <v>185906</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>160811</v>
+        <v>159097</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>211650</v>
+        <v>212176</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1170935368196837</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1012875312321318</v>
+        <v>0.1002079361709966</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1333084998623164</v>
+        <v>0.1336398448857151</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>305</v>
@@ -1429,19 +1429,19 @@
         <v>311334</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>279805</v>
+        <v>280495</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>348639</v>
+        <v>349674</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09488756997139217</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08527808399244412</v>
+        <v>0.08548833164195371</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.106257171959258</v>
+        <v>0.106572661875513</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>1498796</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1472826</v>
+        <v>1471183</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1521177</v>
+        <v>1526297</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8850738599444896</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8697381576485426</v>
+        <v>0.8687681139168265</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8982907205961411</v>
+        <v>0.9013141610767406</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1274</v>
@@ -1479,19 +1479,19 @@
         <v>1296890</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1266796</v>
+        <v>1263883</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1328535</v>
+        <v>1324604</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8168496641378122</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.797894847737279</v>
+        <v>0.7960601852318812</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8367814879668762</v>
+        <v>0.8343051444202964</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2729</v>
@@ -1500,19 +1500,19 @@
         <v>2795686</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2752360</v>
+        <v>2752199</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2837477</v>
+        <v>2833849</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8520610921933429</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8388563646063817</v>
+        <v>0.8388071849863549</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8647980848418456</v>
+        <v>0.8636923391991839</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>4944</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1113</v>
+        <v>1830</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12062</v>
+        <v>12329</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008966427019052006</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002018338105533703</v>
+        <v>0.003318115268925429</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02187572888928964</v>
+        <v>0.02235944846378403</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1628,16 +1628,16 @@
         <v>900</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9030</v>
+        <v>8160</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006441086002553006</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00189006090959558</v>
+        <v>0.001889168672309262</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01895442859627208</v>
+        <v>0.01712728631031191</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1646,19 +1646,19 @@
         <v>8013</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3108</v>
+        <v>3113</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16108</v>
+        <v>16037</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007795889038270154</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003023910901230397</v>
+        <v>0.003028905540623085</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0156722429596875</v>
+        <v>0.01560320795021893</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>9540</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3756</v>
+        <v>4281</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18218</v>
+        <v>19476</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01730049430171542</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006811284404516115</v>
+        <v>0.007764556359278721</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03303986174780501</v>
+        <v>0.03531978507472719</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1696,19 +1696,19 @@
         <v>8270</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3362</v>
+        <v>4136</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15521</v>
+        <v>15990</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01735897541988912</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007055925850533875</v>
+        <v>0.008682124697424399</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03257902858399955</v>
+        <v>0.03356326091618566</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -1717,19 +1717,19 @@
         <v>17810</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10347</v>
+        <v>10651</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30003</v>
+        <v>28192</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01732760128233058</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01006685852681869</v>
+        <v>0.01036295632122948</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02919050718593335</v>
+        <v>0.02742855144119868</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>8177</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3807</v>
+        <v>3518</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15635</v>
+        <v>15197</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0148286565951486</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006904985561501231</v>
+        <v>0.006379237500769303</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02835473583727116</v>
+        <v>0.02755952237458906</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -1767,19 +1767,19 @@
         <v>21786</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>13720</v>
+        <v>13655</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>32258</v>
+        <v>31657</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04572974818845612</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0287980235885382</v>
+        <v>0.02866119828413336</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0677103939593101</v>
+        <v>0.06644799994132419</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>29</v>
@@ -1788,19 +1788,19 @@
         <v>29963</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>19809</v>
+        <v>19931</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>43163</v>
+        <v>43551</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0291518316124105</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01927245865657923</v>
+        <v>0.01939106959268099</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04199479595646963</v>
+        <v>0.0423721474023432</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>33675</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23348</v>
+        <v>23937</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46820</v>
+        <v>46653</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06107035688569533</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04234247876233518</v>
+        <v>0.04341090775962915</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08490991342037234</v>
+        <v>0.08460681953471186</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -1838,19 +1838,19 @@
         <v>47379</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36295</v>
+        <v>36349</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62174</v>
+        <v>62395</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09944944157182246</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07618466458990468</v>
+        <v>0.07629760132867658</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.130504376691866</v>
+        <v>0.1309683721469194</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -1859,19 +1859,19 @@
         <v>81054</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65471</v>
+        <v>64816</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>99148</v>
+        <v>99603</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07885970731371612</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06369938046111494</v>
+        <v>0.06306182452632603</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09646474657573888</v>
+        <v>0.09690708860091517</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>495073</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>478533</v>
+        <v>479376</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>509307</v>
+        <v>508687</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8978340651983886</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8678384447225851</v>
+        <v>0.8693666803022638</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9236483872965642</v>
+        <v>0.9225235366072774</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>375</v>
@@ -1909,19 +1909,19 @@
         <v>395908</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>378693</v>
+        <v>378299</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>412548</v>
+        <v>411745</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8310207488172793</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7948850999282553</v>
+        <v>0.7940591501785701</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8659479060461214</v>
+        <v>0.864262196890178</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>850</v>
@@ -1930,19 +1930,19 @@
         <v>890981</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>866315</v>
+        <v>868125</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>910433</v>
+        <v>911894</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8668649707532726</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.842866229726178</v>
+        <v>0.8446271303850099</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8857905872167439</v>
+        <v>0.8872115562835244</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>29859</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20290</v>
+        <v>20781</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41581</v>
+        <v>42580</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009113106603695128</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006192448785132468</v>
+        <v>0.006342478087440333</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01269039149103867</v>
+        <v>0.0129952648009947</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>50</v>
@@ -2055,19 +2055,19 @@
         <v>53021</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40125</v>
+        <v>39474</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>70327</v>
+        <v>71143</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0156903108164208</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01187425625645343</v>
+        <v>0.01168133913101284</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02081184223828296</v>
+        <v>0.02105315616635655</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>80</v>
@@ -2076,19 +2076,19 @@
         <v>82880</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64769</v>
+        <v>66345</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>102886</v>
+        <v>102576</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01245243005533301</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00973127114035232</v>
+        <v>0.00996810065407659</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01545829987949882</v>
+        <v>0.015411598264715</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>85027</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>67629</v>
+        <v>68648</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>104729</v>
+        <v>103832</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02595029478760604</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02064050301979136</v>
+        <v>0.02095123205053484</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03196316186393042</v>
+        <v>0.03168945079589667</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>119</v>
@@ -2126,19 +2126,19 @@
         <v>122559</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>102959</v>
+        <v>102523</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>145548</v>
+        <v>144176</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03626857248235349</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03046839119076577</v>
+        <v>0.03033932977375925</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04307178725052684</v>
+        <v>0.04266578086156033</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>204</v>
@@ -2147,19 +2147,19 @@
         <v>207586</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>182073</v>
+        <v>181095</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>239468</v>
+        <v>237884</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03118900497086538</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02735580314958439</v>
+        <v>0.02720878234061729</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03597922502199729</v>
+        <v>0.03574119833887413</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>140690</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>117986</v>
+        <v>118067</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>163553</v>
+        <v>165038</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04293868089702602</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03600927634910981</v>
+        <v>0.03603416592918633</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04991635644324702</v>
+        <v>0.05036960879453274</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>246</v>
@@ -2197,19 +2197,19 @@
         <v>256764</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>226878</v>
+        <v>225552</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>289159</v>
+        <v>286352</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07598380756012586</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06713948586187241</v>
+        <v>0.06674725126002855</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0855704052473245</v>
+        <v>0.08473972102010742</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>388</v>
@@ -2218,19 +2218,19 @@
         <v>397455</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>358054</v>
+        <v>360342</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>435581</v>
+        <v>437877</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05971607792765644</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0537962532957539</v>
+        <v>0.0541400590999407</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06544434936866901</v>
+        <v>0.0657892966368976</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>340106</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>308973</v>
+        <v>304614</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>374510</v>
+        <v>373228</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1038003694137794</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09429836607887397</v>
+        <v>0.09296819770876434</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.114300430523858</v>
+        <v>0.1139091232038567</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>544</v>
@@ -2268,19 +2268,19 @@
         <v>554362</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>515356</v>
+        <v>512248</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>602917</v>
+        <v>595467</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1640514799958433</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1525084251210536</v>
+        <v>0.1515885516032531</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1784201881415786</v>
+        <v>0.1762154541987998</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>887</v>
@@ -2289,19 +2289,19 @@
         <v>894469</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>838222</v>
+        <v>838474</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>948998</v>
+        <v>952391</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1343905624572966</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1259396697080489</v>
+        <v>0.1259774971272224</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.142583387574743</v>
+        <v>0.1430931903153237</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>2680859</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2635840</v>
+        <v>2638072</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2724096</v>
+        <v>2727036</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8181975482978935</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8044574898142877</v>
+        <v>0.8051387052662196</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8313933312004204</v>
+        <v>0.8322905565146602</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2338</v>
@@ -2339,19 +2339,19 @@
         <v>2392491</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2341706</v>
+        <v>2339443</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2445216</v>
+        <v>2441492</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7080058291452566</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6929770552501739</v>
+        <v>0.6923073352115495</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7236084851240593</v>
+        <v>0.7225065461662019</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4952</v>
@@ -2360,19 +2360,19 @@
         <v>5073351</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5005676</v>
+        <v>5002710</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5145609</v>
+        <v>5144330</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7622519245888485</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7520839791909122</v>
+        <v>0.7516383379683245</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7731083478880776</v>
+        <v>0.7729162280179847</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>37092</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25307</v>
+        <v>25607</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53878</v>
+        <v>51751</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03821743767491746</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02607445065807009</v>
+        <v>0.02638447091927512</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05551271395711565</v>
+        <v>0.0533209453341754</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>81</v>
@@ -2724,19 +2724,19 @@
         <v>86575</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69921</v>
+        <v>70259</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>105073</v>
+        <v>106013</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06475999252507547</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05230274280629415</v>
+        <v>0.05255563608507294</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07859689459225884</v>
+        <v>0.07930023327088155</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>114</v>
@@ -2745,19 +2745,19 @@
         <v>123667</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102958</v>
+        <v>103525</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>146287</v>
+        <v>149794</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05359558444466928</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04462077365279925</v>
+        <v>0.04486644620293735</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06339892221416341</v>
+        <v>0.06491900877071272</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>71140</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54784</v>
+        <v>55157</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>91243</v>
+        <v>91860</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07329829877942261</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05644605465116496</v>
+        <v>0.05683099541890299</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09401147454178352</v>
+        <v>0.09464782549748708</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>151</v>
@@ -2795,19 +2795,19 @@
         <v>160787</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>137789</v>
+        <v>136655</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>185496</v>
+        <v>184628</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1202724313664601</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1030696589381211</v>
+        <v>0.1022212264652565</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1387555692816504</v>
+        <v>0.138106029868599</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>215</v>
@@ -2816,19 +2816,19 @@
         <v>231927</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>204155</v>
+        <v>203841</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>264818</v>
+        <v>262859</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1005140325090241</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08847808646094035</v>
+        <v>0.08834214203119668</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1147689414663006</v>
+        <v>0.1139197036125674</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>70898</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55377</v>
+        <v>54115</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>91155</v>
+        <v>89772</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07304962647298081</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05705738967048522</v>
+        <v>0.05575762625627798</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0939214296278518</v>
+        <v>0.09249580652428967</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>147</v>
@@ -2866,19 +2866,19 @@
         <v>157295</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>136164</v>
+        <v>134512</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>185156</v>
+        <v>183268</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1176599202268466</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1018534152731599</v>
+        <v>0.1006179234899531</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1385012419178291</v>
+        <v>0.1370884265311228</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>210</v>
@@ -2887,19 +2887,19 @@
         <v>228193</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>200216</v>
+        <v>198984</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>259846</v>
+        <v>260396</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09889580626469771</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08677097667671449</v>
+        <v>0.0862372036565746</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1126140749450385</v>
+        <v>0.1128523542310236</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>157093</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>132082</v>
+        <v>134632</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>182311</v>
+        <v>181282</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1618602838136724</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1360905998828156</v>
+        <v>0.1387176665694838</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1878435801957958</v>
+        <v>0.1867829629657547</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>274</v>
@@ -2937,19 +2937,19 @@
         <v>291122</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>258709</v>
+        <v>262263</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>320852</v>
+        <v>322394</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2177657244345156</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1935203638527622</v>
+        <v>0.1961784745929487</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2400046928166225</v>
+        <v>0.2411577325108399</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>421</v>
@@ -2958,19 +2958,19 @@
         <v>448215</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>410910</v>
+        <v>411940</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>488386</v>
+        <v>490836</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1942506123238103</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1780832159523502</v>
+        <v>0.1785293750559451</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2116603416462151</v>
+        <v>0.212722241835901</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>634325</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>604755</v>
+        <v>604091</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>667675</v>
+        <v>662951</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6535743532590067</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6231072442975644</v>
+        <v>0.6224221311851914</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6879363743253621</v>
+        <v>0.6830686554638324</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>593</v>
@@ -3008,19 +3008,19 @@
         <v>641079</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>604178</v>
+        <v>605524</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>678064</v>
+        <v>677391</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4795419314471023</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4519388007638972</v>
+        <v>0.4529456894239719</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5072072854371799</v>
+        <v>0.506703828544332</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1190</v>
@@ -3029,19 +3029,19 @@
         <v>1275404</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1222940</v>
+        <v>1221633</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1324168</v>
+        <v>1323423</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5527439644577986</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.53000672514633</v>
+        <v>0.5294400552959548</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5738777426936756</v>
+        <v>0.5735545011284724</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>13101</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6594</v>
+        <v>7102</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21001</v>
+        <v>22240</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00670780853135902</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00337621369104449</v>
+        <v>0.003636302885051699</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01075248419001149</v>
+        <v>0.01138667347225276</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -3154,19 +3154,19 @@
         <v>26699</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17123</v>
+        <v>17469</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39542</v>
+        <v>38223</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01521414450079467</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009757397952262187</v>
+        <v>0.009954443421955542</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0225325608043338</v>
+        <v>0.02178076503463265</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -3175,19 +3175,19 @@
         <v>39800</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27529</v>
+        <v>28753</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54330</v>
+        <v>54187</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01073358009854416</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007424200455947928</v>
+        <v>0.007754369932843771</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01465198381980039</v>
+        <v>0.01461358495849744</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>41348</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28164</v>
+        <v>29153</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>57058</v>
+        <v>56705</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0211703884358593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01441998579300847</v>
+        <v>0.01492614510256172</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02921348728286591</v>
+        <v>0.02903319827974377</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>53</v>
@@ -3225,19 +3225,19 @@
         <v>62389</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47484</v>
+        <v>46594</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>82293</v>
+        <v>80749</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03555199991150661</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0270583724167619</v>
+        <v>0.02655092752606784</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04689379589864959</v>
+        <v>0.0460138198082163</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>90</v>
@@ -3246,19 +3246,19 @@
         <v>103738</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>84217</v>
+        <v>85142</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>126988</v>
+        <v>127653</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0279767364071828</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02271237060589525</v>
+        <v>0.02296169165854315</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03424692830189852</v>
+        <v>0.034426330175252</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>39033</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28783</v>
+        <v>28088</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52287</v>
+        <v>51867</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01998464440269552</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01473686339248307</v>
+        <v>0.01438087487429811</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0267710291115571</v>
+        <v>0.0265560316737621</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>74</v>
@@ -3296,19 +3296,19 @@
         <v>79480</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>62820</v>
+        <v>63079</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>100170</v>
+        <v>99403</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04529104955337373</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03579762705251727</v>
+        <v>0.03594489756406404</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05708095301856048</v>
+        <v>0.05664368493250667</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>112</v>
@@ -3317,19 +3317,19 @@
         <v>118513</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>98004</v>
+        <v>97624</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>142993</v>
+        <v>141949</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03196134114843045</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02643042370998363</v>
+        <v>0.02632804368712664</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03856326657021546</v>
+        <v>0.03828173574985717</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>159393</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>135330</v>
+        <v>134390</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>185904</v>
+        <v>185391</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08160910406375463</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06928904363630774</v>
+        <v>0.06880771571068496</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09518269154403321</v>
+        <v>0.09492025245944222</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>179</v>
@@ -3367,19 +3367,19 @@
         <v>195372</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>168595</v>
+        <v>168456</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>224364</v>
+        <v>225295</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1113306803431158</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0960725173541791</v>
+        <v>0.09599335598681336</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1278516049490021</v>
+        <v>0.1283821969454726</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>326</v>
@@ -3388,19 +3388,19 @@
         <v>354764</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>319691</v>
+        <v>318355</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>390491</v>
+        <v>395464</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09567535740094968</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08621646602867679</v>
+        <v>0.08585632127355557</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1053104908237911</v>
+        <v>0.1066516081667022</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>1700250</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1668856</v>
+        <v>1669076</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1731785</v>
+        <v>1729503</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8705280545663315</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8544544123252339</v>
+        <v>0.854566949141591</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8866738041000477</v>
+        <v>0.8855057273603282</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1301</v>
@@ -3438,19 +3438,19 @@
         <v>1390936</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1355957</v>
+        <v>1351947</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1426004</v>
+        <v>1425015</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7926121256912092</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7726798788771218</v>
+        <v>0.7703945087184978</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8125955902876716</v>
+        <v>0.8120316883878586</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2912</v>
@@ -3459,19 +3459,19 @@
         <v>3091186</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3046926</v>
+        <v>3041378</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3138846</v>
+        <v>3140447</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8336529849448929</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8217166836649188</v>
+        <v>0.8202203840494751</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8465061248546374</v>
+        <v>0.8469381402255632</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>3065</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8252</v>
+        <v>9127</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006399049063522229</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001970798294166098</v>
+        <v>0.001949182231743748</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01722683521297249</v>
+        <v>0.01905262681183121</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3597,19 +3597,19 @@
         <v>3065</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8223</v>
+        <v>7815</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003269089574319344</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.000997969216500028</v>
+        <v>0.0009971199399870011</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008770060763235006</v>
+        <v>0.008334939495915407</v>
       </c>
     </row>
     <row r="17">
@@ -3626,19 +3626,19 @@
         <v>7086</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18070</v>
+        <v>17826</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0147933871437006</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004424920367423387</v>
+        <v>0.004405812010353042</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03772270000607716</v>
+        <v>0.03721324024543395</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -3647,19 +3647,19 @@
         <v>11913</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6048</v>
+        <v>5740</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21830</v>
+        <v>20813</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02597573151279789</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01318658947149025</v>
+        <v>0.0125158728969176</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04759892370891281</v>
+        <v>0.04538037524749633</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -3668,19 +3668,19 @@
         <v>19000</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10742</v>
+        <v>10421</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33375</v>
+        <v>31094</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02026299434973213</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01145655691646911</v>
+        <v>0.01111410404924929</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.035594391251007</v>
+        <v>0.0331615394259091</v>
       </c>
     </row>
     <row r="18">
@@ -3697,19 +3697,19 @@
         <v>10646</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5175</v>
+        <v>5060</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20363</v>
+        <v>20990</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02222457475090342</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01080366748196252</v>
+        <v>0.01056234442900383</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04250908290491326</v>
+        <v>0.04381807537219172</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -3718,19 +3718,19 @@
         <v>9429</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4477</v>
+        <v>4149</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17854</v>
+        <v>18777</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02055905759176626</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.009762135039138529</v>
+        <v>0.009046170194701541</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03892799777618232</v>
+        <v>0.04094059122552402</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>17</v>
@@ -3739,19 +3739,19 @@
         <v>20075</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11634</v>
+        <v>11506</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>31582</v>
+        <v>32761</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02140992226349114</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01240810939323278</v>
+        <v>0.01227060425866096</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03368161014880668</v>
+        <v>0.03493981019271213</v>
       </c>
     </row>
     <row r="19">
@@ -3768,19 +3768,19 @@
         <v>30440</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20129</v>
+        <v>20321</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45118</v>
+        <v>44285</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06354748417635869</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04202098773574301</v>
+        <v>0.04242300241744579</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0941890253635896</v>
+        <v>0.09244911438026147</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -3789,19 +3789,19 @@
         <v>29496</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20155</v>
+        <v>19819</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41944</v>
+        <v>42477</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06431281135716561</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04394590794463923</v>
+        <v>0.04321272829471354</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09145513368010776</v>
+        <v>0.09261622080508133</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -3810,19 +3810,19 @@
         <v>59936</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45127</v>
+        <v>44110</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80380</v>
+        <v>78910</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06392182777774889</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04812732736982803</v>
+        <v>0.04704313481134904</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08572528240855237</v>
+        <v>0.08415767600103242</v>
       </c>
     </row>
     <row r="20">
@@ -3839,19 +3839,19 @@
         <v>427780</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>412077</v>
+        <v>410958</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>440822</v>
+        <v>441892</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8930355048655151</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8602541760368267</v>
+        <v>0.8579184191956917</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9202610429624004</v>
+        <v>0.9224960644448011</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>367</v>
@@ -3860,19 +3860,19 @@
         <v>407793</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>392226</v>
+        <v>391438</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>420827</v>
+        <v>420911</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8891523995382702</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8552093756475166</v>
+        <v>0.8534924477409709</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9175719211599825</v>
+        <v>0.9177560129583469</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>761</v>
@@ -3881,19 +3881,19 @@
         <v>835573</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>810716</v>
+        <v>810607</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>857626</v>
+        <v>858025</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8911361660347085</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.864625868452383</v>
+        <v>0.8645102843918552</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9146556676828876</v>
+        <v>0.9150811235837297</v>
       </c>
     </row>
     <row r="21">
@@ -3985,19 +3985,19 @@
         <v>53258</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39567</v>
+        <v>40337</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>70504</v>
+        <v>71885</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01565181836875137</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01162810128539301</v>
+        <v>0.01185435428702991</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02072002571616042</v>
+        <v>0.02112599687022437</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>106</v>
@@ -4006,19 +4006,19 @@
         <v>113274</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>94255</v>
+        <v>94394</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>133344</v>
+        <v>136734</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0319048429793572</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02654792063973992</v>
+        <v>0.02658719301122003</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03755778018062887</v>
+        <v>0.03851273851959011</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>155</v>
@@ -4027,19 +4027,19 @@
         <v>166532</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>141533</v>
+        <v>143897</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>194063</v>
+        <v>196374</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0239509278585841</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0203554471990177</v>
+        <v>0.02069555556233649</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02791050676209052</v>
+        <v>0.02824289856559306</v>
       </c>
     </row>
     <row r="23">
@@ -4056,19 +4056,19 @@
         <v>119574</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>99661</v>
+        <v>100686</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>144237</v>
+        <v>146374</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03514107647725666</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02928898408166586</v>
+        <v>0.02959014059518726</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04238924839613746</v>
+        <v>0.04301714798205312</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>214</v>
@@ -4077,19 +4077,19 @@
         <v>235090</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>205876</v>
+        <v>202035</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>265120</v>
+        <v>262965</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06621566185980668</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05798729799094619</v>
+        <v>0.05690544532792438</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07467400697212404</v>
+        <v>0.07406713111078103</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>320</v>
@@ -4098,19 +4098,19 @@
         <v>354664</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>316823</v>
+        <v>317632</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>391948</v>
+        <v>393716</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0510083622667984</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04556596625396497</v>
+        <v>0.04568237224467071</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05637062846301436</v>
+        <v>0.05662494002182911</v>
       </c>
     </row>
     <row r="24">
@@ -4127,19 +4127,19 @@
         <v>120577</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>99592</v>
+        <v>100134</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>145359</v>
+        <v>145435</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03543567161077202</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02926861184844494</v>
+        <v>0.02942790499694679</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04271894785488878</v>
+        <v>0.04274110383150032</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>229</v>
@@ -4148,19 +4148,19 @@
         <v>246204</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>217110</v>
+        <v>218698</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>276991</v>
+        <v>280002</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06934604835240223</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06115159407340993</v>
+        <v>0.06159876420870491</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07801763105384933</v>
+        <v>0.07886556181486647</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>339</v>
@@ -4169,19 +4169,19 @@
         <v>366780</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>331350</v>
+        <v>331204</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>407507</v>
+        <v>408826</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05275096745033059</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04765536626956954</v>
+        <v>0.04763428779616786</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05860839408203741</v>
+        <v>0.05879799861930565</v>
       </c>
     </row>
     <row r="25">
@@ -4198,19 +4198,19 @@
         <v>346926</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>315028</v>
+        <v>307854</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>384728</v>
+        <v>383384</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.101956462322465</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09258195389705727</v>
+        <v>0.09047360879150398</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1130659817087804</v>
+        <v>0.1126707789922157</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>480</v>
@@ -4219,19 +4219,19 @@
         <v>515989</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>474810</v>
+        <v>474145</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>560227</v>
+        <v>560442</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1453341300520436</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1337356019761649</v>
+        <v>0.1335481079684344</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1577943310802127</v>
+        <v>0.1578548439389037</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>799</v>
@@ -4240,19 +4240,19 @@
         <v>862915</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>799313</v>
+        <v>810861</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>916243</v>
+        <v>921538</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1241059404981421</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1149585052106661</v>
+        <v>0.1166193928111525</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1317755362029915</v>
+        <v>0.1325370855692361</v>
       </c>
     </row>
     <row r="26">
@@ -4269,19 +4269,19 @@
         <v>2762355</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2711898</v>
+        <v>2711366</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2804437</v>
+        <v>2807725</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.811814971220755</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7969864544408877</v>
+        <v>0.7968301118393738</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.824182291176613</v>
+        <v>0.825148677508261</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2261</v>
@@ -4290,19 +4290,19 @@
         <v>2439808</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2388294</v>
+        <v>2380917</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2495959</v>
+        <v>2494992</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6871993167563903</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6726897729123575</v>
+        <v>0.6706120241469895</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7030148943750243</v>
+        <v>0.702742273376175</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4863</v>
@@ -4311,19 +4311,19 @@
         <v>5202163</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5126940</v>
+        <v>5124148</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5282167</v>
+        <v>5275098</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7481838019261449</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7373650395576683</v>
+        <v>0.7369635978111108</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7596901200251538</v>
+        <v>0.7586733729422684</v>
       </c>
     </row>
     <row r="27">
@@ -4654,19 +4654,19 @@
         <v>24507</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16715</v>
+        <v>15916</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35328</v>
+        <v>35268</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03265847780995106</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02227473780444697</v>
+        <v>0.0212099962952229</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04707828115131519</v>
+        <v>0.04699879826987898</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -4675,19 +4675,19 @@
         <v>72612</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55654</v>
+        <v>55834</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91562</v>
+        <v>92382</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0738807967164135</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05662625382633747</v>
+        <v>0.05680968872240178</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0931616639361649</v>
+        <v>0.09399642473784042</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -4696,19 +4696,19 @@
         <v>97119</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78951</v>
+        <v>79298</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>120673</v>
+        <v>120368</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05603347137984719</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04555120515166161</v>
+        <v>0.04575159284225416</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06962295712492046</v>
+        <v>0.06944678013698262</v>
       </c>
     </row>
     <row r="5">
@@ -4725,19 +4725,19 @@
         <v>47664</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36033</v>
+        <v>35471</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>61538</v>
+        <v>61761</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0635171989600003</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04801802600278815</v>
+        <v>0.0472683052463027</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08200578305144442</v>
+        <v>0.08230237113599306</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>101</v>
@@ -4746,19 +4746,19 @@
         <v>119896</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>98712</v>
+        <v>99435</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>141567</v>
+        <v>142729</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1219910243650606</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1004371878533321</v>
+        <v>0.1011725453223801</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1440405653970496</v>
+        <v>0.1452224225723431</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>149</v>
@@ -4767,19 +4767,19 @@
         <v>167560</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>145426</v>
+        <v>144005</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>198077</v>
+        <v>198041</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09667460807985057</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0839044070757801</v>
+        <v>0.08308445489220188</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1142811294348103</v>
+        <v>0.1142608912439232</v>
       </c>
     </row>
     <row r="6">
@@ -4796,19 +4796,19 @@
         <v>62302</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49696</v>
+        <v>49621</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>77153</v>
+        <v>77771</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08302362488127747</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06622444419196359</v>
+        <v>0.06612483535873061</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1028143121266863</v>
+        <v>0.1036374428905689</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>102</v>
@@ -4817,19 +4817,19 @@
         <v>118483</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>96544</v>
+        <v>96972</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>141870</v>
+        <v>143406</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1205531519734483</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09823045657997416</v>
+        <v>0.09866581067696469</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1443487435236472</v>
+        <v>0.1459114784426732</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>169</v>
@@ -4838,19 +4838,19 @@
         <v>180785</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>156399</v>
+        <v>155716</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>209085</v>
+        <v>206977</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1043046318147134</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0902351300287457</v>
+        <v>0.08984103601472856</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1206322482548456</v>
+        <v>0.1194164063757446</v>
       </c>
     </row>
     <row r="7">
@@ -4867,19 +4867,19 @@
         <v>120709</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>103175</v>
+        <v>101570</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>141462</v>
+        <v>143556</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1608567267372903</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1374918090480377</v>
+        <v>0.1353527025502697</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1885121145301491</v>
+        <v>0.1913026164583742</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>190</v>
@@ -4888,19 +4888,19 @@
         <v>211814</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>184227</v>
+        <v>184010</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>238722</v>
+        <v>236563</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2155147831948297</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1874460089072866</v>
+        <v>0.1872254823920046</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2428929231864126</v>
+        <v>0.24069582806526</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>315</v>
@@ -4909,19 +4909,19 @@
         <v>332523</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>302973</v>
+        <v>297779</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>366519</v>
+        <v>367820</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1918504154023331</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1748014911358435</v>
+        <v>0.1718051155888778</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2114649802942194</v>
+        <v>0.2122153632790163</v>
       </c>
     </row>
     <row r="8">
@@ -4938,19 +4938,19 @@
         <v>495229</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>473272</v>
+        <v>469784</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>521292</v>
+        <v>520015</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6599439716114808</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6306835480466306</v>
+        <v>0.6260353647140124</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6946757040046494</v>
+        <v>0.6929737833601378</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>427</v>
@@ -4959,19 +4959,19 @@
         <v>460023</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>428780</v>
+        <v>427089</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>492345</v>
+        <v>492887</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4680602437502479</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4362717747398701</v>
+        <v>0.4345507098061845</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5009468632177272</v>
+        <v>0.5014989698583425</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>919</v>
@@ -4980,19 +4980,19 @@
         <v>955252</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>914528</v>
+        <v>913342</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>997498</v>
+        <v>997603</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5511368733232558</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5276409504230138</v>
+        <v>0.5269570146977328</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5755111147439991</v>
+        <v>0.5755716030703107</v>
       </c>
     </row>
     <row r="9">
@@ -5084,19 +5084,19 @@
         <v>20122</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12207</v>
+        <v>12339</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30497</v>
+        <v>31287</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009762051853037848</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005922230488141548</v>
+        <v>0.005986128747659645</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01479548627519471</v>
+        <v>0.0151784573077779</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -5105,19 +5105,19 @@
         <v>29868</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19995</v>
+        <v>20612</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42228</v>
+        <v>43258</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01508910717486272</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01010163611332084</v>
+        <v>0.01041323705220358</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02133357707636735</v>
+        <v>0.02185401939453679</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -5126,19 +5126,19 @@
         <v>49990</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36695</v>
+        <v>37335</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65860</v>
+        <v>66961</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0123716432840744</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009081298744944077</v>
+        <v>0.009239811022907139</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0162992717400057</v>
+        <v>0.01657178064591002</v>
       </c>
     </row>
     <row r="11">
@@ -5155,19 +5155,19 @@
         <v>38309</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26799</v>
+        <v>25592</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>52204</v>
+        <v>51853</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01858549017161508</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01300152037997741</v>
+        <v>0.0124158776009571</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02532620484958469</v>
+        <v>0.02515586878838005</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>71</v>
@@ -5176,19 +5176,19 @@
         <v>76936</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>61537</v>
+        <v>60940</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>97698</v>
+        <v>95301</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.038867952973912</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03108821744420839</v>
+        <v>0.03078654228581272</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04935660049961999</v>
+        <v>0.04814545443341878</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>106</v>
@@ -5197,19 +5197,19 @@
         <v>115246</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>95430</v>
+        <v>95251</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>140907</v>
+        <v>138463</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.028521362418397</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02361719465696739</v>
+        <v>0.02357307707926895</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03487204408880337</v>
+        <v>0.03426715797308391</v>
       </c>
     </row>
     <row r="12">
@@ -5226,19 +5226,19 @@
         <v>60894</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>47388</v>
+        <v>46715</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>79849</v>
+        <v>78048</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02954219314299382</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02298999747821925</v>
+        <v>0.02266353462540944</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03873820986224475</v>
+        <v>0.03786420073124825</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>65</v>
@@ -5247,19 +5247,19 @@
         <v>72204</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>56923</v>
+        <v>55763</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>91498</v>
+        <v>92489</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03647731134398288</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0287572549802457</v>
+        <v>0.02817128044171802</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04622431864175493</v>
+        <v>0.04672525646415036</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>121</v>
@@ -5268,19 +5268,19 @@
         <v>133098</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>111355</v>
+        <v>111135</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>159433</v>
+        <v>157914</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03293953443892145</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02755851503213108</v>
+        <v>0.02750407939794551</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0394568583970329</v>
+        <v>0.0390811028581497</v>
       </c>
     </row>
     <row r="13">
@@ -5297,19 +5297,19 @@
         <v>198084</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>172842</v>
+        <v>172207</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>227201</v>
+        <v>228604</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09609904567802807</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08385301474981953</v>
+        <v>0.08354507732041039</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.110224841455567</v>
+        <v>0.110905467907965</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>206</v>
@@ -5318,19 +5318,19 @@
         <v>226026</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>200059</v>
+        <v>198723</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>256499</v>
+        <v>255438</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1141873522246757</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.101068898834173</v>
+        <v>0.1003938748776378</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.129582300088086</v>
+        <v>0.1290460714465832</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>391</v>
@@ -5339,19 +5339,19 @@
         <v>424110</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>381627</v>
+        <v>386527</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>463932</v>
+        <v>468528</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1049600555445304</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09444609354442522</v>
+        <v>0.09565896211278989</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1148152193311221</v>
+        <v>0.1159527249398988</v>
       </c>
     </row>
     <row r="14">
@@ -5368,19 +5368,19 @@
         <v>1743842</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1703624</v>
+        <v>1710025</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1773838</v>
+        <v>1776314</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8460112191543252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8264996424365358</v>
+        <v>0.829604921572923</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8605633817524757</v>
+        <v>0.861764432484692</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1530</v>
@@ -5389,19 +5389,19 @@
         <v>1574395</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1536445</v>
+        <v>1534912</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1611424</v>
+        <v>1607820</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7953782762825667</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7762061039429232</v>
+        <v>0.7754317967158998</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8140852923008091</v>
+        <v>0.8122645161032754</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3173</v>
@@ -5410,19 +5410,19 @@
         <v>3318237</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3260482</v>
+        <v>3263581</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3370260</v>
+        <v>3369293</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8212074043140768</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.806913976000557</v>
+        <v>0.8076810039037301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8340821280494027</v>
+        <v>0.8338428372434109</v>
       </c>
     </row>
     <row r="15">
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4766</v>
+        <v>5592</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00174899690166502</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008805533813417109</v>
+        <v>0.01033161736669406</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -5535,19 +5535,19 @@
         <v>5449</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1861</v>
+        <v>1525</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14579</v>
+        <v>13488</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009955729646616771</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003400023215559949</v>
+        <v>0.002786218785325655</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02663876739886166</v>
+        <v>0.02464505621581415</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -5556,19 +5556,19 @@
         <v>6395</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2475</v>
+        <v>2468</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15027</v>
+        <v>15164</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00587519443585088</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002273369385328647</v>
+        <v>0.002267388953173423</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01380507444820012</v>
+        <v>0.01393094045245024</v>
       </c>
     </row>
     <row r="17">
@@ -5585,19 +5585,19 @@
         <v>7943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3507</v>
+        <v>3813</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15476</v>
+        <v>15518</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01467510361054949</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006479206772722242</v>
+        <v>0.007045545920920817</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02859416588403589</v>
+        <v>0.02867206869907734</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -5606,19 +5606,19 @@
         <v>16985</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9951</v>
+        <v>10368</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27164</v>
+        <v>27105</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03103385756392136</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01818208019185092</v>
+        <v>0.01894512529689184</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04963384364084546</v>
+        <v>0.04952567884200736</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -5627,19 +5627,19 @@
         <v>24927</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16841</v>
+        <v>16582</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37300</v>
+        <v>36531</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02289999070295267</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01547184871718916</v>
+        <v>0.0152337307867218</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03426682299482884</v>
+        <v>0.03355981253525062</v>
       </c>
     </row>
     <row r="18">
@@ -5656,19 +5656,19 @@
         <v>13691</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6057</v>
+        <v>6809</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23655</v>
+        <v>23212</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02529674053725556</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01119052271255691</v>
+        <v>0.01258107276555174</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04370480408708856</v>
+        <v>0.04288780775887756</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -5677,19 +5677,19 @@
         <v>13792</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7482</v>
+        <v>7539</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>25688</v>
+        <v>25355</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02520125684833127</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01367030561856198</v>
+        <v>0.01377428437027388</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04693605562439188</v>
+        <v>0.04632750670039621</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>23</v>
@@ -5698,19 +5698,19 @@
         <v>27484</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>17826</v>
+        <v>16287</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>40978</v>
+        <v>39821</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02524873305680767</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01637618276793813</v>
+        <v>0.0149627828559104</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03764517510849544</v>
+        <v>0.03658225516995198</v>
       </c>
     </row>
     <row r="19">
@@ -5727,19 +5727,19 @@
         <v>30154</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19869</v>
+        <v>20041</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42612</v>
+        <v>44093</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05571295497036894</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03671045854181151</v>
+        <v>0.03702748617547261</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07873206082105902</v>
+        <v>0.08146663706399294</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -5748,19 +5748,19 @@
         <v>50708</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38470</v>
+        <v>37766</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67362</v>
+        <v>67827</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09265367656242778</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07029112436715357</v>
+        <v>0.06900549985267919</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1230837071342611</v>
+        <v>0.1239330361611667</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>74</v>
@@ -5769,19 +5769,19 @@
         <v>80862</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>63425</v>
+        <v>64952</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>101187</v>
+        <v>100376</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07428608499436799</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05826660012744742</v>
+        <v>0.05966939912563728</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09295837014776265</v>
+        <v>0.0922127931740906</v>
       </c>
     </row>
     <row r="20">
@@ -5798,19 +5798,19 @@
         <v>488500</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>474366</v>
+        <v>472749</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>502075</v>
+        <v>502680</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.902566203980161</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8764519153370279</v>
+        <v>0.8734656107634667</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9276484115944345</v>
+        <v>0.9287672548165179</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>444</v>
@@ -5819,19 +5819,19 @@
         <v>460356</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>441334</v>
+        <v>439958</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>477563</v>
+        <v>477154</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8411554793787028</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.806399344008367</v>
+        <v>0.8038844433133667</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.872596640382208</v>
+        <v>0.8718488001777664</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>895</v>
@@ -5840,19 +5840,19 @@
         <v>948855</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>923059</v>
+        <v>925996</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>971422</v>
+        <v>972225</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8716899968100208</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8479910209427425</v>
+        <v>0.8506893637447382</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8924217327790497</v>
+        <v>0.8931587862988611</v>
       </c>
     </row>
     <row r="21">
@@ -5944,19 +5944,19 @@
         <v>45576</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33803</v>
+        <v>33916</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62521</v>
+        <v>61244</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0135930048978402</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01008184700378842</v>
+        <v>0.0101153990166125</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01864679065234838</v>
+        <v>0.01826604160886974</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>92</v>
@@ -5965,19 +5965,19 @@
         <v>107929</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>88179</v>
+        <v>86620</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>131124</v>
+        <v>132211</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03075285669431847</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02512552613961221</v>
+        <v>0.02468131306168067</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03736196025961604</v>
+        <v>0.0376718147292867</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>137</v>
@@ -5986,19 +5986,19 @@
         <v>153505</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>127361</v>
+        <v>128385</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>179707</v>
+        <v>179770</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02236878614855198</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01855912234105836</v>
+        <v>0.01870830487050818</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02618706004720314</v>
+        <v>0.02619617896030755</v>
       </c>
     </row>
     <row r="23">
@@ -6015,19 +6015,19 @@
         <v>93916</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>76811</v>
+        <v>76795</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>115170</v>
+        <v>115089</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02801041750791946</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02290889577418607</v>
+        <v>0.02290420011125933</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03434946664053803</v>
+        <v>0.03432526094065023</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>188</v>
@@ -6036,19 +6036,19 @@
         <v>213817</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>184644</v>
+        <v>186525</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>241132</v>
+        <v>247301</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06092440337549313</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05261181964328839</v>
+        <v>0.05314793886044018</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06870751228020235</v>
+        <v>0.07046523080902016</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>279</v>
@@ -6057,19 +6057,19 @@
         <v>307733</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>272171</v>
+        <v>270948</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>343175</v>
+        <v>344910</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04484307687401757</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03966089487970276</v>
+        <v>0.03948273587788505</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05000772969140622</v>
+        <v>0.05026046962805705</v>
       </c>
     </row>
     <row r="24">
@@ -6086,19 +6086,19 @@
         <v>136887</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>114815</v>
+        <v>114352</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>161543</v>
+        <v>163165</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04082654420815726</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03424365996011392</v>
+        <v>0.03410549425142959</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04818015978340813</v>
+        <v>0.04866379253704615</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>179</v>
@@ -6107,19 +6107,19 @@
         <v>204480</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>178256</v>
+        <v>177013</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>234445</v>
+        <v>235813</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05826382861807747</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05079182131177703</v>
+        <v>0.05043752882675536</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0668020292088613</v>
+        <v>0.067191994237632</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>313</v>
@@ -6128,19 +6128,19 @@
         <v>341367</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>304269</v>
+        <v>304056</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>380283</v>
+        <v>378280</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0497442082650993</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04433832258642026</v>
+        <v>0.04430720054995244</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05541506828011279</v>
+        <v>0.05512324673090751</v>
       </c>
     </row>
     <row r="25">
@@ -6157,19 +6157,19 @@
         <v>348947</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>313339</v>
+        <v>314964</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>387219</v>
+        <v>386775</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1040732094648555</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09345310997823093</v>
+        <v>0.09393793497550011</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1154877969193309</v>
+        <v>0.1153554390388357</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>444</v>
@@ -6178,19 +6178,19 @@
         <v>488548</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>444458</v>
+        <v>446724</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>530463</v>
+        <v>530071</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1392054679951087</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1266425142676914</v>
+        <v>0.1272882751680607</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.151148685226283</v>
+        <v>0.1510369764329985</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>780</v>
@@ -6199,19 +6199,19 @@
         <v>837495</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>776625</v>
+        <v>788185</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>889400</v>
+        <v>904561</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1220403235962392</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.113170259855051</v>
+        <v>0.1148548238572297</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1296040079919908</v>
+        <v>0.1318132458943069</v>
       </c>
     </row>
     <row r="26">
@@ -6228,19 +6228,19 @@
         <v>2727571</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2682839</v>
+        <v>2681286</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2773673</v>
+        <v>2770425</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8134968239212276</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.800155546641671</v>
+        <v>0.7996923015004846</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.827246775939162</v>
+        <v>0.8262779683864366</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2401</v>
@@ -6249,19 +6249,19 @@
         <v>2494774</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2445302</v>
+        <v>2441289</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2547118</v>
+        <v>2553013</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7108534433170022</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6967572667316901</v>
+        <v>0.6956136454237651</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7257684312625934</v>
+        <v>0.7274481137706837</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4987</v>
@@ -6270,19 +6270,19 @@
         <v>5222345</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5147933</v>
+        <v>5144954</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5296442</v>
+        <v>5287827</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7610036051160919</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7501603268426775</v>
+        <v>0.7497262357945429</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7718011324473188</v>
+        <v>0.7705457317816796</v>
       </c>
     </row>
     <row r="27">
@@ -6613,19 +6613,19 @@
         <v>34252</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24833</v>
+        <v>25942</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46252</v>
+        <v>47014</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05920504884841444</v>
+        <v>0.05920504884841445</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04292419959737382</v>
+        <v>0.04484187379986877</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0799473613521999</v>
+        <v>0.08126497307685421</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>170</v>
@@ -6634,19 +6634,19 @@
         <v>87140</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>75092</v>
+        <v>74546</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>101952</v>
+        <v>99645</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1063160635213613</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09161601879000231</v>
+        <v>0.09095011991326231</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1243874092563293</v>
+        <v>0.1215728994835756</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>217</v>
@@ -6655,19 +6655,19 @@
         <v>121392</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>106069</v>
+        <v>105792</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>140425</v>
+        <v>140111</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08682257503328779</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07586284185994027</v>
+        <v>0.07566508893442699</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1004355684262429</v>
+        <v>0.100210709461408</v>
       </c>
     </row>
     <row r="5">
@@ -6684,19 +6684,19 @@
         <v>71997</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59301</v>
+        <v>59086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88138</v>
+        <v>86622</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1244491605307513</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1025036291247124</v>
+        <v>0.1021320924855027</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1523491323087212</v>
+        <v>0.1497288440115587</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>262</v>
@@ -6705,19 +6705,19 @@
         <v>145359</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>129722</v>
+        <v>129963</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>161433</v>
+        <v>162253</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1773460702822434</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1582681485661359</v>
+        <v>0.1585617771058292</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1969574809857226</v>
+        <v>0.1979576022238958</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>359</v>
@@ -6726,19 +6726,19 @@
         <v>217357</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>195904</v>
+        <v>195555</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>240013</v>
+        <v>239885</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1554585072897294</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1401148116080655</v>
+        <v>0.1398657313677319</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1716629705058641</v>
+        <v>0.1715711771648037</v>
       </c>
     </row>
     <row r="6">
@@ -6755,19 +6755,19 @@
         <v>64103</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51909</v>
+        <v>52085</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80106</v>
+        <v>80021</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.110804294922489</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08972533806456288</v>
+        <v>0.09003012618697183</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1384644120897474</v>
+        <v>0.138318654982741</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>221</v>
@@ -6776,19 +6776,19 @@
         <v>124224</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>108261</v>
+        <v>110946</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>140060</v>
+        <v>141051</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.151560014023483</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.132084753076807</v>
+        <v>0.1353607609391066</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1708806142779095</v>
+        <v>0.1720900711983834</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>306</v>
@@ -6797,19 +6797,19 @@
         <v>188328</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>167417</v>
+        <v>168569</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>208543</v>
+        <v>209061</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1346962052807984</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1197406605200299</v>
+        <v>0.1205645407024928</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1491548345830085</v>
+        <v>0.1495253016453535</v>
       </c>
     </row>
     <row r="7">
@@ -6826,19 +6826,19 @@
         <v>77619</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63570</v>
+        <v>62553</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93160</v>
+        <v>92515</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1341665205801195</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1098822110965848</v>
+        <v>0.1081245529062467</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1610290246383536</v>
+        <v>0.1599139669681909</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>292</v>
@@ -6847,19 +6847,19 @@
         <v>162552</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>145212</v>
+        <v>147189</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>181991</v>
+        <v>179374</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.198322287450762</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1771664201942508</v>
+        <v>0.1795784052596871</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2220394497556733</v>
+        <v>0.2188462304687085</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>393</v>
@@ -6868,19 +6868,19 @@
         <v>240171</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>217587</v>
+        <v>215810</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>264609</v>
+        <v>262976</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.171776060169978</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1556232331536857</v>
+        <v>0.1543525898407168</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1892548274972093</v>
+        <v>0.1880867775197251</v>
       </c>
     </row>
     <row r="8">
@@ -6897,19 +6897,19 @@
         <v>330557</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>306645</v>
+        <v>306825</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>352490</v>
+        <v>352797</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5713749751182258</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5300434098875562</v>
+        <v>0.5303531181131753</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6092870607170229</v>
+        <v>0.6098170083262475</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>478</v>
@@ -6918,19 +6918,19 @@
         <v>300360</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>278380</v>
+        <v>278851</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>321366</v>
+        <v>320940</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3664555647221504</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3396388022893185</v>
+        <v>0.3402131128362003</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3920840322953416</v>
+        <v>0.3915642085080336</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>839</v>
@@ -6939,19 +6939,19 @@
         <v>630917</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>598679</v>
+        <v>597332</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>663761</v>
+        <v>665349</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4512466522262064</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4281894186565441</v>
+        <v>0.4272260046081407</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4747374995871508</v>
+        <v>0.4758731359740762</v>
       </c>
     </row>
     <row r="9">
@@ -7043,19 +7043,19 @@
         <v>40486</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29606</v>
+        <v>29721</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55498</v>
+        <v>54075</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01816710413026604</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01328521958223353</v>
+        <v>0.01333684721417484</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02490334807747644</v>
+        <v>0.02426496906908408</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>100</v>
@@ -7064,19 +7064,19 @@
         <v>61185</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49813</v>
+        <v>50134</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76057</v>
+        <v>74900</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02818375397086905</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02294543208335855</v>
+        <v>0.02309343812223686</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03503428676770413</v>
+        <v>0.03450147726470096</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>145</v>
@@ -7085,19 +7085,19 @@
         <v>101671</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86014</v>
+        <v>85025</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>121947</v>
+        <v>119257</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02310986163601499</v>
+        <v>0.023109861636015</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01955110136366092</v>
+        <v>0.01932639397697604</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02771869671111041</v>
+        <v>0.02710726902134228</v>
       </c>
     </row>
     <row r="11">
@@ -7114,19 +7114,19 @@
         <v>101528</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>83346</v>
+        <v>82345</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>122768</v>
+        <v>122622</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04555849827807089</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0373995203659584</v>
+        <v>0.03695049831991055</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05508919732421044</v>
+        <v>0.05502396886467623</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>191</v>
@@ -7135,19 +7135,19 @@
         <v>126092</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>109797</v>
+        <v>108672</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>147625</v>
+        <v>147807</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.05808213945684153</v>
+        <v>0.05808213945684151</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05057617912628874</v>
+        <v>0.05005807270270374</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06800075785883219</v>
+        <v>0.06808469259513386</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>296</v>
@@ -7156,19 +7156,19 @@
         <v>227620</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>199181</v>
+        <v>201224</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>255583</v>
+        <v>254117</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.05173834108187491</v>
+        <v>0.05173834108187492</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0452741084837317</v>
+        <v>0.04573842595261114</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.058094315111925</v>
+        <v>0.05776109280731113</v>
       </c>
     </row>
     <row r="12">
@@ -7185,19 +7185,19 @@
         <v>134678</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>113979</v>
+        <v>114526</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>158993</v>
+        <v>160101</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06043361211076708</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05114562698289615</v>
+        <v>0.05139108459106976</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07134448071323718</v>
+        <v>0.07184195352416584</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>260</v>
@@ -7206,19 +7206,19 @@
         <v>174475</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>153940</v>
+        <v>151996</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>199185</v>
+        <v>195727</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.08036901410320377</v>
+        <v>0.08036901410320375</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07090963748513154</v>
+        <v>0.07001442198919303</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09175102853569787</v>
+        <v>0.09015825902834559</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>402</v>
@@ -7227,19 +7227,19 @@
         <v>309153</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>277138</v>
+        <v>276716</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>342133</v>
+        <v>344202</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07027081910075476</v>
+        <v>0.07027081910075478</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06299370989451457</v>
+        <v>0.06289790913590651</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07776716326141776</v>
+        <v>0.07823762641102054</v>
       </c>
     </row>
     <row r="13">
@@ -7256,19 +7256,19 @@
         <v>275224</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>245319</v>
+        <v>247180</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>310875</v>
+        <v>309817</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.123500429278201</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1100815296033477</v>
+        <v>0.1109164927089607</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1394982751542617</v>
+        <v>0.1390234666999953</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>507</v>
@@ -7277,19 +7277,19 @@
         <v>307860</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>279645</v>
+        <v>280849</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>335400</v>
+        <v>334350</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1418103958384043</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1288135579336578</v>
+        <v>0.129368083137405</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1544964068528744</v>
+        <v>0.1540127408803695</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>793</v>
@@ -7298,19 +7298,19 @@
         <v>583083</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>542355</v>
+        <v>539558</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>630064</v>
+        <v>626347</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1325355583967815</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1232780027391551</v>
+        <v>0.1226420910985757</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1432142808587455</v>
+        <v>0.1423693083576944</v>
       </c>
     </row>
     <row r="14">
@@ -7327,19 +7327,19 @@
         <v>1676608</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1628939</v>
+        <v>1631492</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1719013</v>
+        <v>1716115</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.752340356202695</v>
+        <v>0.7523403562026951</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7309501738264876</v>
+        <v>0.7320958491366035</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7713688187909487</v>
+        <v>0.7700682574157492</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1862</v>
@@ -7348,19 +7348,19 @@
         <v>1501314</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1463391</v>
+        <v>1463490</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1539585</v>
+        <v>1537241</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6915546966306814</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6740861751615349</v>
+        <v>0.6741317755902835</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7091835441473061</v>
+        <v>0.7081037366439056</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3274</v>
@@ -7369,19 +7369,19 @@
         <v>3177922</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3117960</v>
+        <v>3120380</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3243574</v>
+        <v>3237688</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7223454197845738</v>
+        <v>0.7223454197845739</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7087160260190551</v>
+        <v>0.7092660851053844</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7372681639988886</v>
+        <v>0.73593036765896</v>
       </c>
     </row>
     <row r="15">
@@ -7473,19 +7473,19 @@
         <v>8519</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3974</v>
+        <v>3955</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15942</v>
+        <v>16238</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01199828146290049</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005596628588784044</v>
+        <v>0.005570981166606002</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02245391746986881</v>
+        <v>0.02286992947876512</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -7494,19 +7494,19 @@
         <v>12897</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7911</v>
+        <v>8296</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20800</v>
+        <v>21151</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01758739209151529</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0107880148484275</v>
+        <v>0.01131382302535303</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02836589651780923</v>
+        <v>0.02884361599727935</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -7515,7 +7515,7 @@
         <v>21415</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14377</v>
+        <v>14553</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>31282</v>
@@ -7524,10 +7524,10 @@
         <v>0.01483791124922482</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009961011087351205</v>
+        <v>0.01008311287224894</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02167398181995798</v>
+        <v>0.0216743023461789</v>
       </c>
     </row>
     <row r="17">
@@ -7544,19 +7544,19 @@
         <v>21850</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13976</v>
+        <v>13825</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33689</v>
+        <v>33786</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03077466260453383</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01968442285273916</v>
+        <v>0.01947227960717016</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04744848537982942</v>
+        <v>0.04758565172075688</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>48</v>
@@ -7565,19 +7565,19 @@
         <v>31513</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23355</v>
+        <v>23469</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>43560</v>
+        <v>41774</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04297448311122464</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0318495898512264</v>
+        <v>0.03200507314195851</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05940385440128375</v>
+        <v>0.05696797292954744</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>72</v>
@@ -7586,19 +7586,19 @@
         <v>53363</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40959</v>
+        <v>40987</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68962</v>
+        <v>68511</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03697296068817644</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02837883628418427</v>
+        <v>0.02839800289540123</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0477811816543525</v>
+        <v>0.04746851810006918</v>
       </c>
     </row>
     <row r="18">
@@ -7615,19 +7615,19 @@
         <v>27677</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18410</v>
+        <v>18431</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>40391</v>
+        <v>40576</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03898118698723623</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02592937520413919</v>
+        <v>0.02595937596835984</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05688770632859644</v>
+        <v>0.05714833559802054</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>76</v>
@@ -7636,19 +7636,19 @@
         <v>47784</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38099</v>
+        <v>38582</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>59130</v>
+        <v>58951</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06516335602535117</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05195676317685765</v>
+        <v>0.05261465649794978</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08063712193271483</v>
+        <v>0.08039321241736169</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>107</v>
@@ -7657,19 +7657,19 @@
         <v>75460</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>60589</v>
+        <v>62537</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>91394</v>
+        <v>93678</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05228342271156937</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04197930686012338</v>
+        <v>0.04332954720721403</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06332345800614772</v>
+        <v>0.06490538480365984</v>
       </c>
     </row>
     <row r="19">
@@ -7686,19 +7686,19 @@
         <v>74791</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>59473</v>
+        <v>59222</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>93671</v>
+        <v>93159</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1053388200925309</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08376352794358473</v>
+        <v>0.08340967020500215</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1319292261921979</v>
+        <v>0.1312082133268589</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>147</v>
@@ -7707,19 +7707,19 @@
         <v>100031</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>86310</v>
+        <v>83378</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>118697</v>
+        <v>116258</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1364143048977327</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1177028099371369</v>
+        <v>0.1137040514181868</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1618693309920689</v>
+        <v>0.1585431270546115</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>224</v>
@@ -7728,19 +7728,19 @@
         <v>174822</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>154162</v>
+        <v>151636</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>200721</v>
+        <v>198884</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1211271767991489</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1068127909587698</v>
+        <v>0.1050621824341566</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1390715836204012</v>
+        <v>0.1377983874666273</v>
       </c>
     </row>
     <row r="20">
@@ -7757,19 +7757,19 @@
         <v>577171</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>554308</v>
+        <v>555917</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>596080</v>
+        <v>597452</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8129070488527985</v>
+        <v>0.8129070488527984</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7807060177748608</v>
+        <v>0.7829725700942943</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8395404858268506</v>
+        <v>0.8414717616165343</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>713</v>
@@ -7778,19 +7778,19 @@
         <v>541064</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>519222</v>
+        <v>520847</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>560793</v>
+        <v>560857</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7378604638741761</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7080735052068718</v>
+        <v>0.7102902836826854</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7647650061615004</v>
+        <v>0.7648526443201821</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1252</v>
@@ -7799,19 +7799,19 @@
         <v>1118235</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1086797</v>
+        <v>1087251</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1147892</v>
+        <v>1147719</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7747785285518805</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7529966893108015</v>
+        <v>0.7533108665060364</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7953270718745519</v>
+        <v>0.7952071914093743</v>
       </c>
     </row>
     <row r="21">
@@ -7903,19 +7903,19 @@
         <v>83257</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>67106</v>
+        <v>67363</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>101559</v>
+        <v>102594</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02367219615033761</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01908015499560906</v>
+        <v>0.01915307036364727</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02887610708794969</v>
+        <v>0.02917047741088648</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>288</v>
@@ -7924,19 +7924,19 @@
         <v>161222</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>141707</v>
+        <v>142877</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>180272</v>
+        <v>180474</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04329441065936328</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03805390725620734</v>
+        <v>0.03836797182078323</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04841011666134945</v>
+        <v>0.0484643468572523</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>389</v>
@@ -7945,19 +7945,19 @@
         <v>244478</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>221116</v>
+        <v>219315</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>273139</v>
+        <v>272961</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.03376349341726968</v>
+        <v>0.03376349341726966</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03053705263332332</v>
+        <v>0.0302883821352734</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03772161853984561</v>
+        <v>0.03769711322800397</v>
       </c>
     </row>
     <row r="23">
@@ -7974,19 +7974,19 @@
         <v>195376</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>172028</v>
+        <v>169254</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>220893</v>
+        <v>221760</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.05555091096775428</v>
+        <v>0.05555091096775429</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04891239321008129</v>
+        <v>0.0481238272738243</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06280621949614307</v>
+        <v>0.06305250329538264</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>501</v>
@@ -7995,19 +7995,19 @@
         <v>302964</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>277199</v>
+        <v>277557</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>332598</v>
+        <v>334169</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.08135769356458955</v>
+        <v>0.08135769356458956</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07443871894756755</v>
+        <v>0.07453495333381753</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08931552826361222</v>
+        <v>0.08973756560413246</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>727</v>
@@ -8016,19 +8016,19 @@
         <v>498340</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>460252</v>
+        <v>461814</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>540455</v>
+        <v>535981</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.06882280311672483</v>
+        <v>0.06882280311672481</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06356276024121013</v>
+        <v>0.06377845050930053</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07463905306211016</v>
+        <v>0.07402128823101158</v>
       </c>
     </row>
     <row r="24">
@@ -8045,19 +8045,19 @@
         <v>226458</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>198119</v>
+        <v>199545</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>253068</v>
+        <v>258449</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.06438848244725418</v>
+        <v>0.06438848244725419</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05633096932258794</v>
+        <v>0.05673636406991393</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07195440169914356</v>
+        <v>0.07348434698418688</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>557</v>
@@ -8066,19 +8066,19 @@
         <v>346483</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>315048</v>
+        <v>316953</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>376314</v>
+        <v>377973</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.09304421166552442</v>
+        <v>0.09304421166552443</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08460275482252935</v>
+        <v>0.08511419690895758</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1010550035285754</v>
+        <v>0.1015005813992536</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>815</v>
@@ -8087,19 +8087,19 @@
         <v>572941</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>529934</v>
+        <v>530449</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>610918</v>
+        <v>616283</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.07912552865624675</v>
+        <v>0.07912552865624672</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0731861222708477</v>
+        <v>0.07325725323484579</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08437031502519968</v>
+        <v>0.08511120392382873</v>
       </c>
     </row>
     <row r="25">
@@ -8116,19 +8116,19 @@
         <v>427634</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>388354</v>
+        <v>390672</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>467360</v>
+        <v>467193</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1215885348124515</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1104200518123907</v>
+        <v>0.111079148523286</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1328836935279756</v>
+        <v>0.1328361405894746</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>946</v>
@@ -8137,19 +8137,19 @@
         <v>570443</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>536537</v>
+        <v>535649</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>608088</v>
+        <v>605009</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1531863256127343</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1440812383847901</v>
+        <v>0.1438427902849926</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1632956263976019</v>
+        <v>0.1624686091000025</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1410</v>
@@ -8158,19 +8158,19 @@
         <v>998077</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>947162</v>
+        <v>952650</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1056242</v>
+        <v>1056897</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.137838622171211</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.130807099717743</v>
+        <v>0.1315649192443425</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1458714892735626</v>
+        <v>0.1459619456143726</v>
       </c>
     </row>
     <row r="26">
@@ -8187,19 +8187,19 @@
         <v>2584336</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2535500</v>
+        <v>2531814</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2638782</v>
+        <v>2640955</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7347998756222023</v>
+        <v>0.7347998756222026</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7209144369211192</v>
+        <v>0.7198663916538116</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.750280405481542</v>
+        <v>0.7508982970829559</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3053</v>
@@ -8208,19 +8208,19 @@
         <v>2342739</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2292886</v>
+        <v>2290979</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2394448</v>
+        <v>2394711</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6291173584977883</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6157299092180166</v>
+        <v>0.6152178598005303</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6430033030727909</v>
+        <v>0.6430739075229226</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5365</v>
@@ -8229,19 +8229,19 @@
         <v>4927074</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4854526</v>
+        <v>4851494</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5001146</v>
+        <v>5001575</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6804495526385477</v>
+        <v>0.6804495526385478</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6704303877451475</v>
+        <v>0.670011630021754</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6906792681852525</v>
+        <v>0.6907384434375072</v>
       </c>
     </row>
     <row r="27">
